--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plxna3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H2">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I2">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J2">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.381477956946401</v>
+        <v>0.4032725</v>
       </c>
       <c r="N2">
-        <v>0.381477956946401</v>
+        <v>0.806545</v>
       </c>
       <c r="O2">
-        <v>0.04313356953633898</v>
+        <v>0.04184860801861762</v>
       </c>
       <c r="P2">
-        <v>0.04313356953633898</v>
+        <v>0.03257830737810435</v>
       </c>
       <c r="Q2">
-        <v>22.2981813584322</v>
+        <v>23.81544238794125</v>
       </c>
       <c r="R2">
-        <v>22.2981813584322</v>
+        <v>95.261769551765</v>
       </c>
       <c r="S2">
-        <v>0.02555038351073158</v>
+        <v>0.02424129116848293</v>
       </c>
       <c r="T2">
-        <v>0.02555038351073158</v>
+        <v>0.01581007037834242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H3">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I3">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J3">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.57248853366426</v>
+        <v>2.864538</v>
       </c>
       <c r="N3">
-        <v>2.57248853366426</v>
+        <v>8.593613999999999</v>
       </c>
       <c r="O3">
-        <v>0.2908703138090686</v>
+        <v>0.2972603584832461</v>
       </c>
       <c r="P3">
-        <v>0.2908703138090686</v>
+        <v>0.3471168978553966</v>
       </c>
       <c r="Q3">
-        <v>150.3673143405046</v>
+        <v>169.166604980673</v>
       </c>
       <c r="R3">
-        <v>150.3673143405046</v>
+        <v>1014.999629884038</v>
       </c>
       <c r="S3">
-        <v>0.1722984707641086</v>
+        <v>0.1721915075319635</v>
       </c>
       <c r="T3">
-        <v>0.1722984707641086</v>
+        <v>0.168453889298562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H4">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I4">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J4">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.699393473669049</v>
+        <v>0.7332406666666667</v>
       </c>
       <c r="N4">
-        <v>0.699393473669049</v>
+        <v>2.199722</v>
       </c>
       <c r="O4">
-        <v>0.07908015779271935</v>
+        <v>0.07609023983198257</v>
       </c>
       <c r="P4">
-        <v>0.07908015779271935</v>
+        <v>0.08885210305981496</v>
       </c>
       <c r="Q4">
-        <v>40.88100565917497</v>
+        <v>43.30186376084566</v>
       </c>
       <c r="R4">
-        <v>40.88100565917497</v>
+        <v>259.811182565074</v>
       </c>
       <c r="S4">
-        <v>0.04684352307060751</v>
+        <v>0.04407615321461097</v>
       </c>
       <c r="T4">
-        <v>0.04684352307060751</v>
+        <v>0.04311942871481213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H5">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I5">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J5">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.58224645484797</v>
+        <v>1.603365333333333</v>
       </c>
       <c r="N5">
-        <v>1.58224645484797</v>
+        <v>4.810096</v>
       </c>
       <c r="O5">
-        <v>0.1789040133016121</v>
+        <v>0.1663852788010758</v>
       </c>
       <c r="P5">
-        <v>0.1789040133016121</v>
+        <v>0.1942914356994219</v>
       </c>
       <c r="Q5">
-        <v>92.48560175363832</v>
+        <v>94.68747490300534</v>
       </c>
       <c r="R5">
-        <v>92.48560175363832</v>
+        <v>568.124849418032</v>
       </c>
       <c r="S5">
-        <v>0.1059746782054335</v>
+        <v>0.09638060094547739</v>
       </c>
       <c r="T5">
-        <v>0.1059746782054335</v>
+        <v>0.09428854718159975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>58.4520834098028</v>
+        <v>59.0554585</v>
       </c>
       <c r="H6">
-        <v>58.4520834098028</v>
+        <v>118.110917</v>
       </c>
       <c r="I6">
-        <v>0.5923549519639456</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J6">
-        <v>0.5923549519639456</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.60850180208075</v>
+        <v>0.283051</v>
       </c>
       <c r="N6">
-        <v>3.60850180208075</v>
+        <v>0.849153</v>
       </c>
       <c r="O6">
-        <v>0.4080119455602609</v>
+        <v>0.02937291867974567</v>
       </c>
       <c r="P6">
-        <v>0.4080119455602609</v>
+        <v>0.03429934776737745</v>
       </c>
       <c r="Q6">
-        <v>210.9244483196478</v>
+        <v>16.7157065838835</v>
       </c>
       <c r="R6">
-        <v>210.9244483196478</v>
+        <v>100.294239503301</v>
       </c>
       <c r="S6">
-        <v>0.2416878964130643</v>
+        <v>0.01701460354110499</v>
       </c>
       <c r="T6">
-        <v>0.2416878964130643</v>
+        <v>0.01664528165444036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.0887898147491</v>
+        <v>59.0554585</v>
       </c>
       <c r="H7">
-        <v>1.0887898147491</v>
+        <v>118.110917</v>
       </c>
       <c r="I7">
-        <v>0.01103382464390267</v>
+        <v>0.5792615887653531</v>
       </c>
       <c r="J7">
-        <v>0.01103382464390267</v>
+        <v>0.4852944075593153</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.381477956946401</v>
+        <v>3.748994</v>
       </c>
       <c r="N7">
-        <v>0.381477956946401</v>
+        <v>7.497988</v>
       </c>
       <c r="O7">
-        <v>0.04313356953633898</v>
+        <v>0.3890425961853321</v>
       </c>
       <c r="P7">
-        <v>0.04313356953633898</v>
+        <v>0.3028619082398848</v>
       </c>
       <c r="Q7">
-        <v>0.4153493140745371</v>
+        <v>221.398559583749</v>
       </c>
       <c r="R7">
-        <v>0.4153493140745371</v>
+        <v>885.594238334996</v>
       </c>
       <c r="S7">
-        <v>0.0004759282425295463</v>
+        <v>0.2253574323637132</v>
       </c>
       <c r="T7">
-        <v>0.0004759282425295463</v>
+        <v>0.1469771903315586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J8">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.57248853366426</v>
+        <v>0.4032725</v>
       </c>
       <c r="N8">
-        <v>2.57248853366426</v>
+        <v>0.806545</v>
       </c>
       <c r="O8">
-        <v>0.2908703138090686</v>
+        <v>0.04184860801861762</v>
       </c>
       <c r="P8">
-        <v>0.2908703138090686</v>
+        <v>0.03257830737810435</v>
       </c>
       <c r="Q8">
-        <v>2.800899314012493</v>
+        <v>0.4476258882158333</v>
       </c>
       <c r="R8">
-        <v>2.800899314012493</v>
+        <v>2.685755329295</v>
       </c>
       <c r="S8">
-        <v>0.003209412036686204</v>
+        <v>0.0004556299779795457</v>
       </c>
       <c r="T8">
-        <v>0.003209412036686204</v>
+        <v>0.0004457399959601679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J9">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.699393473669049</v>
+        <v>2.864538</v>
       </c>
       <c r="N9">
-        <v>0.699393473669049</v>
+        <v>8.593613999999999</v>
       </c>
       <c r="O9">
-        <v>0.07908015779271935</v>
+        <v>0.2972603584832461</v>
       </c>
       <c r="P9">
-        <v>0.07908015779271935</v>
+        <v>0.3471168978553966</v>
       </c>
       <c r="Q9">
-        <v>0.7614924906328534</v>
+        <v>3.179590392546</v>
       </c>
       <c r="R9">
-        <v>0.7614924906328534</v>
+        <v>28.616313532914</v>
       </c>
       <c r="S9">
-        <v>0.0008725565938970183</v>
+        <v>0.003236445296571355</v>
       </c>
       <c r="T9">
-        <v>0.0008725565938970183</v>
+        <v>0.004749291694379412</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J10">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.58224645484797</v>
+        <v>0.7332406666666667</v>
       </c>
       <c r="N10">
-        <v>1.58224645484797</v>
+        <v>2.199722</v>
       </c>
       <c r="O10">
-        <v>0.1789040133016121</v>
+        <v>0.07609023983198257</v>
       </c>
       <c r="P10">
-        <v>0.1789040133016121</v>
+        <v>0.08885210305981496</v>
       </c>
       <c r="Q10">
-        <v>1.722733824461341</v>
+        <v>0.8138851637357778</v>
       </c>
       <c r="R10">
-        <v>1.722733824461341</v>
+        <v>7.324966473622</v>
       </c>
       <c r="S10">
-        <v>0.001973995510860418</v>
+        <v>0.0008284384102735513</v>
       </c>
       <c r="T10">
-        <v>0.001973995510860418</v>
+        <v>0.001215684277248625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.0887898147491</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>1.0887898147491</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01103382464390267</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J11">
-        <v>0.01103382464390267</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.60850180208075</v>
+        <v>1.603365333333333</v>
       </c>
       <c r="N11">
-        <v>3.60850180208075</v>
+        <v>4.810096</v>
       </c>
       <c r="O11">
-        <v>0.4080119455602609</v>
+        <v>0.1663852788010758</v>
       </c>
       <c r="P11">
-        <v>0.4080119455602609</v>
+        <v>0.1942914356994219</v>
       </c>
       <c r="Q11">
-        <v>3.928900008609293</v>
+        <v>1.779709331699556</v>
       </c>
       <c r="R11">
-        <v>3.928900008609293</v>
+        <v>16.017383985296</v>
       </c>
       <c r="S11">
-        <v>0.00450193225992948</v>
+        <v>0.001811532677085181</v>
       </c>
       <c r="T11">
-        <v>0.00450193225992948</v>
+        <v>0.002658316859701592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.270801485772494</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>0.270801485772494</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.002744309385379904</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J12">
-        <v>0.002744309385379904</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.381477956946401</v>
+        <v>0.283051</v>
       </c>
       <c r="N12">
-        <v>0.381477956946401</v>
+        <v>0.849153</v>
       </c>
       <c r="O12">
-        <v>0.04313356953633898</v>
+        <v>0.02937291867974567</v>
       </c>
       <c r="P12">
-        <v>0.04313356953633898</v>
+        <v>0.03429934776737745</v>
       </c>
       <c r="Q12">
-        <v>0.1033047975305409</v>
+        <v>0.3141819868336667</v>
       </c>
       <c r="R12">
-        <v>0.1033047975305409</v>
+        <v>2.827637881503001</v>
       </c>
       <c r="S12">
-        <v>0.0001183718597035118</v>
+        <v>0.0003197999389918439</v>
       </c>
       <c r="T12">
-        <v>0.0001183718597035118</v>
+        <v>0.0004692874604511398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.270801485772494</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>0.270801485772494</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.002744309385379904</v>
+        <v>0.01088757785627768</v>
       </c>
       <c r="J13">
-        <v>0.002744309385379904</v>
+        <v>0.01368211033148231</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.57248853366426</v>
+        <v>3.748994</v>
       </c>
       <c r="N13">
-        <v>2.57248853366426</v>
+        <v>7.497988</v>
       </c>
       <c r="O13">
-        <v>0.2908703138090686</v>
+        <v>0.3890425961853321</v>
       </c>
       <c r="P13">
-        <v>0.2908703138090686</v>
+        <v>0.3028619082398848</v>
       </c>
       <c r="Q13">
-        <v>0.696633717048986</v>
+        <v>4.161322106431333</v>
       </c>
       <c r="R13">
-        <v>0.696633717048986</v>
+        <v>24.967932638588</v>
       </c>
       <c r="S13">
-        <v>0.000798238132114625</v>
+        <v>0.004235731555376201</v>
       </c>
       <c r="T13">
-        <v>0.000798238132114625</v>
+        <v>0.004143790043741376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H14">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I14">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J14">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.699393473669049</v>
+        <v>0.4032725</v>
       </c>
       <c r="N14">
-        <v>0.699393473669049</v>
+        <v>0.806545</v>
       </c>
       <c r="O14">
-        <v>0.07908015779271935</v>
+        <v>0.04184860801861762</v>
       </c>
       <c r="P14">
-        <v>0.07908015779271935</v>
+        <v>0.03257830737810435</v>
       </c>
       <c r="Q14">
-        <v>0.1893967918091642</v>
+        <v>0.05284200549249999</v>
       </c>
       <c r="R14">
-        <v>0.1893967918091642</v>
+        <v>0.317052032955</v>
       </c>
       <c r="S14">
-        <v>0.0002170204192278835</v>
+        <v>5.378688416549715E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002170204192278835</v>
+        <v>5.261937688330729E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H15">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I15">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J15">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.58224645484797</v>
+        <v>2.864538</v>
       </c>
       <c r="N15">
-        <v>1.58224645484797</v>
+        <v>8.593613999999999</v>
       </c>
       <c r="O15">
-        <v>0.1789040133016121</v>
+        <v>0.2972603584832461</v>
       </c>
       <c r="P15">
-        <v>0.1789040133016121</v>
+        <v>0.3471168978553966</v>
       </c>
       <c r="Q15">
-        <v>0.4284746908310916</v>
+        <v>0.3753490077539999</v>
       </c>
       <c r="R15">
-        <v>0.4284746908310916</v>
+        <v>3.378141069785999</v>
       </c>
       <c r="S15">
-        <v>0.0004909679627857454</v>
+        <v>0.0003820606998832423</v>
       </c>
       <c r="T15">
-        <v>0.0004909679627857454</v>
+        <v>0.000560651437744535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.270801485772494</v>
+        <v>0.131033</v>
       </c>
       <c r="H16">
-        <v>0.270801485772494</v>
+        <v>0.393099</v>
       </c>
       <c r="I16">
-        <v>0.002744309385379904</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J16">
-        <v>0.002744309385379904</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.60850180208075</v>
+        <v>0.7332406666666667</v>
       </c>
       <c r="N16">
-        <v>3.60850180208075</v>
+        <v>2.199722</v>
       </c>
       <c r="O16">
-        <v>0.4080119455602609</v>
+        <v>0.07609023983198257</v>
       </c>
       <c r="P16">
-        <v>0.4080119455602609</v>
+        <v>0.08885210305981496</v>
       </c>
       <c r="Q16">
-        <v>0.9771876494161893</v>
+        <v>0.09607872427533332</v>
       </c>
       <c r="R16">
-        <v>0.9771876494161893</v>
+        <v>0.8647085184779999</v>
       </c>
       <c r="S16">
-        <v>0.001119711011548139</v>
+        <v>9.779672753146298E-05</v>
       </c>
       <c r="T16">
-        <v>0.001119711011548139</v>
+        <v>0.0001435109026235393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>36.0768964941075</v>
+        <v>0.131033</v>
       </c>
       <c r="H17">
-        <v>36.0768964941075</v>
+        <v>0.393099</v>
       </c>
       <c r="I17">
-        <v>0.3656042187572623</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J17">
-        <v>0.3656042187572623</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.381477956946401</v>
+        <v>1.603365333333333</v>
       </c>
       <c r="N17">
-        <v>0.381477956946401</v>
+        <v>4.810096</v>
       </c>
       <c r="O17">
-        <v>0.04313356953633898</v>
+        <v>0.1663852788010758</v>
       </c>
       <c r="P17">
-        <v>0.04313356953633898</v>
+        <v>0.1942914356994219</v>
       </c>
       <c r="Q17">
-        <v>13.76254076753891</v>
+        <v>0.2100937697226666</v>
       </c>
       <c r="R17">
-        <v>13.76254076753891</v>
+        <v>1.890843927504</v>
       </c>
       <c r="S17">
-        <v>0.01576981499254526</v>
+        <v>0.0002138504992504417</v>
       </c>
       <c r="T17">
-        <v>0.01576981499254526</v>
+        <v>0.0003138129357554618</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>36.0768964941075</v>
+        <v>0.131033</v>
       </c>
       <c r="H18">
-        <v>36.0768964941075</v>
+        <v>0.393099</v>
       </c>
       <c r="I18">
-        <v>0.3656042187572623</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J18">
-        <v>0.3656042187572623</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>2.57248853366426</v>
+        <v>0.283051</v>
       </c>
       <c r="N18">
-        <v>2.57248853366426</v>
+        <v>0.849153</v>
       </c>
       <c r="O18">
-        <v>0.2908703138090686</v>
+        <v>0.02937291867974567</v>
       </c>
       <c r="P18">
-        <v>0.2908703138090686</v>
+        <v>0.03429934776737745</v>
       </c>
       <c r="Q18">
-        <v>92.80740256128388</v>
+        <v>0.037089021683</v>
       </c>
       <c r="R18">
-        <v>92.80740256128388</v>
+        <v>0.333801195147</v>
       </c>
       <c r="S18">
-        <v>0.1063434138398443</v>
+        <v>3.775221804097263E-05</v>
       </c>
       <c r="T18">
-        <v>0.1063434138398443</v>
+        <v>5.539914293510102E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>36.0768964941075</v>
+        <v>0.131033</v>
       </c>
       <c r="H19">
-        <v>36.0768964941075</v>
+        <v>0.393099</v>
       </c>
       <c r="I19">
-        <v>0.3656042187572623</v>
+        <v>0.001285272956786721</v>
       </c>
       <c r="J19">
-        <v>0.3656042187572623</v>
+        <v>0.001615166075775699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.699393473669049</v>
+        <v>3.748994</v>
       </c>
       <c r="N19">
-        <v>0.699393473669049</v>
+        <v>7.497988</v>
       </c>
       <c r="O19">
-        <v>0.07908015779271935</v>
+        <v>0.3890425961853321</v>
       </c>
       <c r="P19">
-        <v>0.07908015779271935</v>
+        <v>0.3028619082398848</v>
       </c>
       <c r="Q19">
-        <v>25.23194595821258</v>
+        <v>0.491241930802</v>
       </c>
       <c r="R19">
-        <v>25.23194595821258</v>
+        <v>2.947451584812</v>
       </c>
       <c r="S19">
-        <v>0.02891203930900819</v>
+        <v>0.0005000259279151041</v>
       </c>
       <c r="T19">
-        <v>0.02891203930900819</v>
+        <v>0.0004891722798337545</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H20">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I20">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J20">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.58224645484797</v>
+        <v>0.4032725</v>
       </c>
       <c r="N20">
-        <v>1.58224645484797</v>
+        <v>0.806545</v>
       </c>
       <c r="O20">
-        <v>0.1789040133016121</v>
+        <v>0.04184860801861762</v>
       </c>
       <c r="P20">
-        <v>0.1789040133016121</v>
+        <v>0.03257830737810435</v>
       </c>
       <c r="Q20">
-        <v>57.08254157971875</v>
+        <v>0.1245094434058333</v>
       </c>
       <c r="R20">
-        <v>57.08254157971875</v>
+        <v>0.7470566604349999</v>
       </c>
       <c r="S20">
-        <v>0.06540806201567477</v>
+        <v>0.0001267358221468449</v>
       </c>
       <c r="T20">
-        <v>0.06540806201567477</v>
+        <v>0.0001239848727738437</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.0768964941075</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H21">
-        <v>36.0768964941075</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I21">
-        <v>0.3656042187572623</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J21">
-        <v>0.3656042187572623</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.60850180208075</v>
+        <v>2.864538</v>
       </c>
       <c r="N21">
-        <v>3.60850180208075</v>
+        <v>8.593613999999999</v>
       </c>
       <c r="O21">
-        <v>0.4080119455602609</v>
+        <v>0.2972603584832461</v>
       </c>
       <c r="P21">
-        <v>0.4080119455602609</v>
+        <v>0.3471168978553966</v>
       </c>
       <c r="Q21">
-        <v>130.1835460124676</v>
+        <v>0.8844194235779999</v>
       </c>
       <c r="R21">
-        <v>130.1835460124676</v>
+        <v>7.959774812201998</v>
       </c>
       <c r="S21">
-        <v>0.1491708886001898</v>
+        <v>0.0009002339075956797</v>
       </c>
       <c r="T21">
-        <v>0.1491708886001898</v>
+        <v>0.00132103991526514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.78889104350851</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H22">
-        <v>2.78889104350851</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I22">
-        <v>0.02826269524950941</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J22">
-        <v>0.02826269524950941</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.381477956946401</v>
+        <v>0.7332406666666667</v>
       </c>
       <c r="N22">
-        <v>0.381477956946401</v>
+        <v>2.199722</v>
       </c>
       <c r="O22">
-        <v>0.04313356953633898</v>
+        <v>0.07609023983198257</v>
       </c>
       <c r="P22">
-        <v>0.04313356953633898</v>
+        <v>0.08885210305981496</v>
       </c>
       <c r="Q22">
-        <v>1.063900457423743</v>
+        <v>0.2263863449384444</v>
       </c>
       <c r="R22">
-        <v>1.063900457423743</v>
+        <v>2.037477104446</v>
       </c>
       <c r="S22">
-        <v>0.001219070930829072</v>
+        <v>0.0002304344053251849</v>
       </c>
       <c r="T22">
-        <v>0.001219070930829072</v>
+        <v>0.0003381488352265839</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.78889104350851</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H23">
-        <v>2.78889104350851</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I23">
-        <v>0.02826269524950941</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J23">
-        <v>0.02826269524950941</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.57248853366426</v>
+        <v>1.603365333333333</v>
       </c>
       <c r="N23">
-        <v>2.57248853366426</v>
+        <v>4.810096</v>
       </c>
       <c r="O23">
-        <v>0.2908703138090686</v>
+        <v>0.1663852788010758</v>
       </c>
       <c r="P23">
-        <v>0.2908703138090686</v>
+        <v>0.1942914356994219</v>
       </c>
       <c r="Q23">
-        <v>7.174390231064595</v>
+        <v>0.4950353054808889</v>
       </c>
       <c r="R23">
-        <v>7.174390231064595</v>
+        <v>4.455317749328</v>
       </c>
       <c r="S23">
-        <v>0.008220779036314877</v>
+        <v>0.0005038871326999735</v>
       </c>
       <c r="T23">
-        <v>0.008220779036314877</v>
+        <v>0.0007394245089734295</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.78889104350851</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H24">
-        <v>2.78889104350851</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I24">
-        <v>0.02826269524950941</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J24">
-        <v>0.02826269524950941</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.699393473669049</v>
+        <v>0.283051</v>
       </c>
       <c r="N24">
-        <v>0.699393473669049</v>
+        <v>0.849153</v>
       </c>
       <c r="O24">
-        <v>0.07908015779271935</v>
+        <v>0.02937291867974567</v>
       </c>
       <c r="P24">
-        <v>0.07908015779271935</v>
+        <v>0.03429934776737745</v>
       </c>
       <c r="Q24">
-        <v>1.950532194603916</v>
+        <v>0.08739133579766666</v>
       </c>
       <c r="R24">
-        <v>1.950532194603916</v>
+        <v>0.786522022179</v>
       </c>
       <c r="S24">
-        <v>0.002235018399978744</v>
+        <v>8.8953998089348E-05</v>
       </c>
       <c r="T24">
-        <v>0.002235018399978744</v>
+        <v>0.0001305347211507452</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.78889104350851</v>
+        <v>0.3087476666666666</v>
       </c>
       <c r="H25">
-        <v>2.78889104350851</v>
+        <v>0.9262429999999999</v>
       </c>
       <c r="I25">
-        <v>0.02826269524950941</v>
+        <v>0.003028435786692419</v>
       </c>
       <c r="J25">
-        <v>0.02826269524950941</v>
+        <v>0.003805749369814501</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.58224645484797</v>
+        <v>3.748994</v>
       </c>
       <c r="N25">
-        <v>1.58224645484797</v>
+        <v>7.497988</v>
       </c>
       <c r="O25">
-        <v>0.1789040133016121</v>
+        <v>0.3890425961853321</v>
       </c>
       <c r="P25">
-        <v>0.1789040133016121</v>
+        <v>0.3028619082398848</v>
       </c>
       <c r="Q25">
-        <v>4.412712966548596</v>
+        <v>1.157493149847333</v>
       </c>
       <c r="R25">
-        <v>4.412712966548596</v>
+        <v>6.944958899084</v>
       </c>
       <c r="S25">
-        <v>0.005056309606857642</v>
+        <v>0.001178190520835387</v>
       </c>
       <c r="T25">
-        <v>0.005056309606857642</v>
+        <v>0.001152616516424759</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>37.931061</v>
+      </c>
+      <c r="H26">
+        <v>113.793183</v>
+      </c>
+      <c r="I26">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J26">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4032725</v>
+      </c>
+      <c r="N26">
+        <v>0.806545</v>
+      </c>
+      <c r="O26">
+        <v>0.04184860801861762</v>
+      </c>
+      <c r="P26">
+        <v>0.03257830737810435</v>
+      </c>
+      <c r="Q26">
+        <v>15.2965537971225</v>
+      </c>
+      <c r="R26">
+        <v>91.77932278273499</v>
+      </c>
+      <c r="S26">
+        <v>0.0155700745940443</v>
+      </c>
+      <c r="T26">
+        <v>0.01523210789909961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>37.931061</v>
+      </c>
+      <c r="H27">
+        <v>113.793183</v>
+      </c>
+      <c r="I27">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J27">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.864538</v>
+      </c>
+      <c r="N27">
+        <v>8.593613999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.2972603584832461</v>
+      </c>
+      <c r="P27">
+        <v>0.3471168978553966</v>
+      </c>
+      <c r="Q27">
+        <v>108.654965614818</v>
+      </c>
+      <c r="R27">
+        <v>977.8946905333619</v>
+      </c>
+      <c r="S27">
+        <v>0.1105978472062302</v>
+      </c>
+      <c r="T27">
+        <v>0.1622957872049458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>37.931061</v>
+      </c>
+      <c r="H28">
+        <v>113.793183</v>
+      </c>
+      <c r="I28">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J28">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7332406666666667</v>
+      </c>
+      <c r="N28">
+        <v>2.199722</v>
+      </c>
+      <c r="O28">
+        <v>0.07609023983198257</v>
+      </c>
+      <c r="P28">
+        <v>0.08885210305981496</v>
+      </c>
+      <c r="Q28">
+        <v>27.812596455014</v>
+      </c>
+      <c r="R28">
+        <v>250.313368095126</v>
+      </c>
+      <c r="S28">
+        <v>0.02830991916232019</v>
+      </c>
+      <c r="T28">
+        <v>0.04154312884218883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>37.931061</v>
+      </c>
+      <c r="H29">
+        <v>113.793183</v>
+      </c>
+      <c r="I29">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J29">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.603365333333333</v>
+      </c>
+      <c r="N29">
+        <v>4.810096</v>
+      </c>
+      <c r="O29">
+        <v>0.1663852788010758</v>
+      </c>
+      <c r="P29">
+        <v>0.1942914356994219</v>
+      </c>
+      <c r="Q29">
+        <v>60.817348263952</v>
+      </c>
+      <c r="R29">
+        <v>547.356134375568</v>
+      </c>
+      <c r="S29">
+        <v>0.06190483566696144</v>
+      </c>
+      <c r="T29">
+        <v>0.09084167811718806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>37.931061</v>
+      </c>
+      <c r="H30">
+        <v>113.793183</v>
+      </c>
+      <c r="I30">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J30">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.283051</v>
+      </c>
+      <c r="N30">
+        <v>0.849153</v>
+      </c>
+      <c r="O30">
+        <v>0.02937291867974567</v>
+      </c>
+      <c r="P30">
+        <v>0.03429934776737745</v>
+      </c>
+      <c r="Q30">
+        <v>10.736424747111</v>
+      </c>
+      <c r="R30">
+        <v>96.627822723999</v>
+      </c>
+      <c r="S30">
+        <v>0.01092840494682586</v>
+      </c>
+      <c r="T30">
+        <v>0.01603678668746832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>37.931061</v>
+      </c>
+      <c r="H31">
+        <v>113.793183</v>
+      </c>
+      <c r="I31">
+        <v>0.3720571682364556</v>
+      </c>
+      <c r="J31">
+        <v>0.4675536921644063</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.748994</v>
+      </c>
+      <c r="N31">
+        <v>7.497988</v>
+      </c>
+      <c r="O31">
+        <v>0.3890425961853321</v>
+      </c>
+      <c r="P31">
+        <v>0.3028619082398848</v>
+      </c>
+      <c r="Q31">
+        <v>142.203320102634</v>
+      </c>
+      <c r="R31">
+        <v>853.2199206158041</v>
+      </c>
+      <c r="S31">
+        <v>0.1447460866600736</v>
+      </c>
+      <c r="T31">
+        <v>0.1416042034135158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.4132665</v>
+      </c>
+      <c r="H32">
+        <v>6.826533</v>
+      </c>
+      <c r="I32">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J32">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.4032725</v>
+      </c>
+      <c r="N32">
+        <v>0.806545</v>
+      </c>
+      <c r="O32">
+        <v>0.04184860801861762</v>
+      </c>
+      <c r="P32">
+        <v>0.03257830737810435</v>
+      </c>
+      <c r="Q32">
+        <v>1.37647651462125</v>
+      </c>
+      <c r="R32">
+        <v>5.505906058485</v>
+      </c>
+      <c r="S32">
+        <v>0.001401089571798493</v>
+      </c>
+      <c r="T32">
+        <v>0.0009137848550449999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.4132665</v>
+      </c>
+      <c r="H33">
+        <v>6.826533</v>
+      </c>
+      <c r="I33">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J33">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.864538</v>
+      </c>
+      <c r="N33">
+        <v>8.593613999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.2972603584832461</v>
+      </c>
+      <c r="P33">
+        <v>0.3471168978553966</v>
+      </c>
+      <c r="Q33">
+        <v>9.777431593376999</v>
+      </c>
+      <c r="R33">
+        <v>58.66458956026199</v>
+      </c>
+      <c r="S33">
+        <v>0.009952263841002078</v>
+      </c>
+      <c r="T33">
+        <v>0.009736238304499666</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.4132665</v>
+      </c>
+      <c r="H34">
+        <v>6.826533</v>
+      </c>
+      <c r="I34">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J34">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.7332406666666667</v>
+      </c>
+      <c r="N34">
+        <v>2.199722</v>
+      </c>
+      <c r="O34">
+        <v>0.07609023983198257</v>
+      </c>
+      <c r="P34">
+        <v>0.08885210305981496</v>
+      </c>
+      <c r="Q34">
+        <v>2.502745803971</v>
+      </c>
+      <c r="R34">
+        <v>15.016474823826</v>
+      </c>
+      <c r="S34">
+        <v>0.002547497911921198</v>
+      </c>
+      <c r="T34">
+        <v>0.002492201487715252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.4132665</v>
+      </c>
+      <c r="H35">
+        <v>6.826533</v>
+      </c>
+      <c r="I35">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J35">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.603365333333333</v>
+      </c>
+      <c r="N35">
+        <v>4.810096</v>
+      </c>
+      <c r="O35">
+        <v>0.1663852788010758</v>
+      </c>
+      <c r="P35">
+        <v>0.1942914356994219</v>
+      </c>
+      <c r="Q35">
+        <v>5.472713179528</v>
+      </c>
+      <c r="R35">
+        <v>32.836279077168</v>
+      </c>
+      <c r="S35">
+        <v>0.005570571879601381</v>
+      </c>
+      <c r="T35">
+        <v>0.005449656096203603</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="H26">
-        <v>2.78889104350851</v>
-      </c>
-      <c r="I26">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="J26">
-        <v>0.02826269524950941</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.60850180208075</v>
-      </c>
-      <c r="N26">
-        <v>3.60850180208075</v>
-      </c>
-      <c r="O26">
-        <v>0.4080119455602609</v>
-      </c>
-      <c r="P26">
-        <v>0.4080119455602609</v>
-      </c>
-      <c r="Q26">
-        <v>10.06371835630732</v>
-      </c>
-      <c r="R26">
-        <v>10.06371835630732</v>
-      </c>
-      <c r="S26">
-        <v>0.01153151727552908</v>
-      </c>
-      <c r="T26">
-        <v>0.01153151727552908</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.4132665</v>
+      </c>
+      <c r="H36">
+        <v>6.826533</v>
+      </c>
+      <c r="I36">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J36">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.283051</v>
+      </c>
+      <c r="N36">
+        <v>0.849153</v>
+      </c>
+      <c r="O36">
+        <v>0.02937291867974567</v>
+      </c>
+      <c r="P36">
+        <v>0.03429934776737745</v>
+      </c>
+      <c r="Q36">
+        <v>0.9661284960915001</v>
+      </c>
+      <c r="R36">
+        <v>5.796770976549</v>
+      </c>
+      <c r="S36">
+        <v>0.0009834040366926463</v>
+      </c>
+      <c r="T36">
+        <v>0.0009620581009317857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.4132665</v>
+      </c>
+      <c r="H37">
+        <v>6.826533</v>
+      </c>
+      <c r="I37">
+        <v>0.03347995639843447</v>
+      </c>
+      <c r="J37">
+        <v>0.02804887449920582</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.748994</v>
+      </c>
+      <c r="N37">
+        <v>7.497988</v>
+      </c>
+      <c r="O37">
+        <v>0.3890425961853321</v>
+      </c>
+      <c r="P37">
+        <v>0.3028619082398848</v>
+      </c>
+      <c r="Q37">
+        <v>12.796315628901</v>
+      </c>
+      <c r="R37">
+        <v>51.185262515604</v>
+      </c>
+      <c r="S37">
+        <v>0.01302512915741867</v>
+      </c>
+      <c r="T37">
+        <v>0.00849493565481052</v>
       </c>
     </row>
   </sheetData>
